--- a/src/main/resources/tools/excel/Box.xlsx
+++ b/src/main/resources/tools/excel/Box.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="684">
   <si>
     <t>Type</t>
   </si>
@@ -2421,7 +2421,7 @@
   <dimension ref="A1:H336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2568,7 +2568,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1</v>
@@ -2594,7 +2594,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1</v>
@@ -2620,7 +2620,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
@@ -2958,7 +2958,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>1</v>
@@ -2984,7 +2984,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>1</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>1</v>
